--- a/data/trans_orig/P70D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1812F08A-8E72-4F48-B1EF-5B5B781E97C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FE53F4-CE07-400A-A8B5-B4AE7DB88EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DE98706-7A04-45C1-B429-D05329232436}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24EDF42C-9AC1-4CC5-96F7-BAE8A5A54F08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
   <si>
     <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10) en 2023 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -83,376 +83,364 @@
     <t>9,33%</t>
   </si>
   <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>71,47%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>95,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01411C7-2858-4F81-AFB9-CE70ECF98507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3891A7A-E8A9-452A-B4C1-70FFF7653558}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1319,10 +1307,10 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -1331,13 +1319,13 @@
         <v>27965</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,13 +1340,13 @@
         <v>466201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
@@ -1367,13 +1355,13 @@
         <v>361759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>987</v>
@@ -1382,13 +1370,13 @@
         <v>827960</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,7 +1432,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1456,13 +1444,13 @@
         <v>24491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -1471,13 +1459,13 @@
         <v>33329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -1486,13 +1474,13 @@
         <v>57820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,13 +1495,13 @@
         <v>548574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>668</v>
@@ -1784,10 +1772,10 @@
         <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -1796,13 +1784,13 @@
         <v>4961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1805,13 @@
         <v>17575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -1832,13 +1820,13 @@
         <v>16107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -1847,13 +1835,13 @@
         <v>33682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1909,13 @@
         <v>76281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -1936,7 +1924,7 @@
         <v>92964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>125</v>
@@ -1957,7 +1945,7 @@
         <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1960,13 @@
         <v>1756879</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>1914</v>
@@ -1987,13 +1975,13 @@
         <v>1410530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>3511</v>
@@ -2002,13 +1990,13 @@
         <v>3167408</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2052,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FE53F4-CE07-400A-A8B5-B4AE7DB88EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF318FA-AEDD-404A-97A5-AA6CB7E0AEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24EDF42C-9AC1-4CC5-96F7-BAE8A5A54F08}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0273CE3D-1D14-4304-B971-066402FC015C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10) en 2023 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,22 +80,22 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,337 +110,361 @@
     <t>100%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -855,8 +879,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3891A7A-E8A9-452A-B4C1-70FFF7653558}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3957B-70EE-48EB-8F89-DF6CA3C2B80F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -991,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>8553</v>
+        <v>7731</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1006,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>8553</v>
+        <v>7731</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1027,7 +1051,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>88947</v>
+        <v>90617</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1042,7 +1066,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>83098</v>
+        <v>73507</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1057,7 +1081,7 @@
         <v>97</v>
       </c>
       <c r="N5" s="7">
-        <v>172044</v>
+        <v>164124</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1078,7 +1102,7 @@
         <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>88947</v>
+        <v>90617</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1093,7 +1117,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -1108,7 +1132,7 @@
         <v>103</v>
       </c>
       <c r="N6" s="7">
-        <v>180597</v>
+        <v>171855</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -1131,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>8073</v>
+        <v>8046</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1146,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>10156</v>
+        <v>9120</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1161,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>18230</v>
+        <v>17166</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1182,7 +1206,7 @@
         <v>242</v>
       </c>
       <c r="D8" s="7">
-        <v>343921</v>
+        <v>340011</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1197,7 +1221,7 @@
         <v>290</v>
       </c>
       <c r="I8" s="7">
-        <v>315263</v>
+        <v>343796</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1212,7 +1236,7 @@
         <v>532</v>
       </c>
       <c r="N8" s="7">
-        <v>659183</v>
+        <v>683807</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1233,7 +1257,7 @@
         <v>248</v>
       </c>
       <c r="D9" s="7">
-        <v>351994</v>
+        <v>348057</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1248,7 +1272,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="7">
-        <v>325419</v>
+        <v>352916</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -1263,7 +1287,7 @@
         <v>548</v>
       </c>
       <c r="N9" s="7">
-        <v>677413</v>
+        <v>700973</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1286,7 +1310,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>13690</v>
+        <v>13360</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1301,31 +1325,31 @@
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>14275</v>
+        <v>12974</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>27965</v>
+        <v>26335</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,46 +1361,46 @@
         <v>460</v>
       </c>
       <c r="D11" s="7">
-        <v>466201</v>
+        <v>448919</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
       </c>
       <c r="I11" s="7">
-        <v>361759</v>
+        <v>337465</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>987</v>
       </c>
       <c r="N11" s="7">
-        <v>827960</v>
+        <v>786382</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,7 +1412,7 @@
         <v>473</v>
       </c>
       <c r="D12" s="7">
-        <v>479891</v>
+        <v>462279</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1403,7 +1427,7 @@
         <v>546</v>
       </c>
       <c r="I12" s="7">
-        <v>376034</v>
+        <v>350439</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -1418,7 +1442,7 @@
         <v>1019</v>
       </c>
       <c r="N12" s="7">
-        <v>855925</v>
+        <v>812717</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1432,7 +1456,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1441,46 +1465,46 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>24491</v>
+        <v>22958</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>33329</v>
+        <v>29055</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>57820</v>
+        <v>52012</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,46 +1516,46 @@
         <v>496</v>
       </c>
       <c r="D14" s="7">
-        <v>548574</v>
+        <v>720770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>668</v>
       </c>
       <c r="I14" s="7">
-        <v>433530</v>
+        <v>424928</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1164</v>
       </c>
       <c r="N14" s="7">
-        <v>982104</v>
+        <v>1145699</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,7 +1567,7 @@
         <v>520</v>
       </c>
       <c r="D15" s="7">
-        <v>573065</v>
+        <v>743728</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -1558,7 +1582,7 @@
         <v>711</v>
       </c>
       <c r="I15" s="7">
-        <v>466859</v>
+        <v>453983</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -1573,7 +1597,7 @@
         <v>1231</v>
       </c>
       <c r="N15" s="7">
-        <v>1039924</v>
+        <v>1197711</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -1587,7 +1611,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1596,46 +1620,46 @@
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>27830</v>
+        <v>25745</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>23888</v>
+        <v>21605</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
       </c>
       <c r="N16" s="7">
-        <v>51718</v>
+        <v>47350</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,46 +1671,46 @@
         <v>326</v>
       </c>
       <c r="D17" s="7">
-        <v>291661</v>
+        <v>273241</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
       </c>
       <c r="I17" s="7">
-        <v>200772</v>
+        <v>185100</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>674</v>
       </c>
       <c r="N17" s="7">
-        <v>492433</v>
+        <v>458340</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,7 +1722,7 @@
         <v>356</v>
       </c>
       <c r="D18" s="7">
-        <v>319491</v>
+        <v>298986</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -1713,7 +1737,7 @@
         <v>386</v>
       </c>
       <c r="I18" s="7">
-        <v>224660</v>
+        <v>206705</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -1728,7 +1752,7 @@
         <v>742</v>
       </c>
       <c r="N18" s="7">
-        <v>544151</v>
+        <v>505690</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -1742,7 +1766,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1751,46 +1775,46 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2198</v>
+        <v>2020</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>2763</v>
+        <v>2525</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>4961</v>
+        <v>4545</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,49 +1823,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>17575</v>
+        <v>14923</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>16107</v>
+        <v>15067</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>55</v>
+      </c>
+      <c r="N20" s="7">
+        <v>29990</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="7">
-        <v>57</v>
-      </c>
-      <c r="N20" s="7">
-        <v>33682</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -1868,7 +1892,7 @@
         <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>18870</v>
+        <v>17592</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -1880,10 +1904,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N21" s="7">
-        <v>38643</v>
+        <v>34535</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -1897,55 +1921,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>76281</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="7">
-        <v>121</v>
-      </c>
-      <c r="I22" s="7">
-        <v>92964</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>169246</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,49 +1976,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1597</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1756879</v>
+        <v>1598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
-        <v>1914</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1410530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
-        <v>3511</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>3167408</v>
+        <v>1598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,63 +2025,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>72129</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="7">
+        <v>121</v>
+      </c>
+      <c r="I25" s="7">
+        <v>83009</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="7">
+        <v>197</v>
+      </c>
+      <c r="N25" s="7">
+        <v>155138</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1597</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1890079</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1914</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1379863</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3511</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3269942</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1673</v>
       </c>
-      <c r="D24" s="7">
-        <v>1833160</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1962208</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>2035</v>
       </c>
-      <c r="I24" s="7">
-        <v>1503494</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1462872</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>3708</v>
       </c>
-      <c r="N24" s="7">
-        <v>3336654</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="N27" s="7">
+        <v>3425080</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
